--- a/DATA/igae_ipc.xlsx
+++ b/DATA/igae_ipc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\mefp\osmar.bolivar\Desktop\Research\Sentiment-Analysis-Criptocurrency\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816483EC-921F-420D-BAE3-AB4A62EF5740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD993B1A-1F4F-4E80-BC29-2A431D0C0BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06C11047-DAE6-4DCF-9BE7-E90FD98A0735}"/>
   </bookViews>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>igae</t>
   </si>
   <si>
     <t>ipc</t>
-  </si>
-  <si>
-    <t>exchange</t>
   </si>
 </sst>
 </file>
@@ -399,29 +396,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731880DF-3272-4C8E-B066-D50FE5185E45}">
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:C421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B367" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B368" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>32874</v>
       </c>
@@ -431,11 +425,8 @@
       <c r="C2" s="2">
         <v>17.41</v>
       </c>
-      <c r="D2">
-        <v>2.9965000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>32905</v>
       </c>
@@ -445,11 +436,8 @@
       <c r="C3" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="D3">
-        <v>3.0346000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>32933</v>
       </c>
@@ -459,11 +447,8 @@
       <c r="C4" s="2">
         <v>17.46</v>
       </c>
-      <c r="D4">
-        <v>3.0703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>32964</v>
       </c>
@@ -473,11 +458,8 @@
       <c r="C5" s="2">
         <v>17.510000000000002</v>
       </c>
-      <c r="D5">
-        <v>3.1002999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>32994</v>
       </c>
@@ -487,11 +469,8 @@
       <c r="C6" s="2">
         <v>17.61</v>
       </c>
-      <c r="D6">
-        <v>3.1274000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>33025</v>
       </c>
@@ -501,11 +480,8 @@
       <c r="C7" s="2">
         <v>17.96</v>
       </c>
-      <c r="D7">
-        <v>3.1476999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>33055</v>
       </c>
@@ -515,11 +491,8 @@
       <c r="C8" s="2">
         <v>18.29</v>
       </c>
-      <c r="D8">
-        <v>3.1709999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>33086</v>
       </c>
@@ -529,11 +502,8 @@
       <c r="C9" s="2">
         <v>18.489999999999998</v>
       </c>
-      <c r="D9">
-        <v>3.1977000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>33117</v>
       </c>
@@ -543,11 +513,8 @@
       <c r="C10" s="2">
         <v>18.7</v>
       </c>
-      <c r="D10">
-        <v>3.2410000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>33147</v>
       </c>
@@ -557,11 +524,8 @@
       <c r="C11" s="2">
         <v>19.350000000000001</v>
       </c>
-      <c r="D11">
-        <v>3.2848000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>33178</v>
       </c>
@@ -571,11 +535,8 @@
       <c r="C12" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="D12">
-        <v>3.3247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>33208</v>
       </c>
@@ -585,11 +546,8 @@
       <c r="C13" s="2">
         <v>20.34</v>
       </c>
-      <c r="D13">
-        <v>3.3748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>33239</v>
       </c>
@@ -599,11 +557,8 @@
       <c r="C14" s="2">
         <v>21.52</v>
       </c>
-      <c r="D14">
-        <v>3.4394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>33270</v>
       </c>
@@ -613,11 +568,8 @@
       <c r="C15" s="2">
         <v>21.58</v>
       </c>
-      <c r="D15">
-        <v>3.4721000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>33298</v>
       </c>
@@ -627,11 +579,8 @@
       <c r="C16" s="2">
         <v>21.72</v>
       </c>
-      <c r="D16">
-        <v>3.5019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>33329</v>
       </c>
@@ -641,11 +590,8 @@
       <c r="C17" s="2">
         <v>21.83</v>
       </c>
-      <c r="D17">
-        <v>3.5257000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>33359</v>
       </c>
@@ -655,11 +601,8 @@
       <c r="C18" s="2">
         <v>22</v>
       </c>
-      <c r="D18">
-        <v>3.5474000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>33390</v>
       </c>
@@ -669,11 +612,8 @@
       <c r="C19" s="2">
         <v>22.16</v>
       </c>
-      <c r="D19">
-        <v>3.5739999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>33420</v>
       </c>
@@ -683,11 +623,8 @@
       <c r="C20" s="2">
         <v>22.35</v>
       </c>
-      <c r="D20">
-        <v>3.5987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>33451</v>
       </c>
@@ -697,11 +634,8 @@
       <c r="C21" s="2">
         <v>22.58</v>
       </c>
-      <c r="D21">
-        <v>3.6181000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>33482</v>
       </c>
@@ -711,11 +645,8 @@
       <c r="C22" s="2">
         <v>22.67</v>
       </c>
-      <c r="D22">
-        <v>3.6427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>33512</v>
       </c>
@@ -725,11 +656,8 @@
       <c r="C23" s="2">
         <v>22.89</v>
       </c>
-      <c r="D23">
-        <v>3.6726000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>33543</v>
       </c>
@@ -739,11 +667,8 @@
       <c r="C24" s="2">
         <v>23.08</v>
       </c>
-      <c r="D24">
-        <v>3.7010000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>33573</v>
       </c>
@@ -753,11 +678,8 @@
       <c r="C25" s="2">
         <v>23.29</v>
       </c>
-      <c r="D25">
-        <v>3.7258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>33604</v>
       </c>
@@ -767,11 +689,8 @@
       <c r="C26" s="2">
         <v>23.89</v>
       </c>
-      <c r="D26">
-        <v>3.7584</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>33635</v>
       </c>
@@ -781,11 +700,8 @@
       <c r="C27" s="2">
         <v>24.42</v>
       </c>
-      <c r="D27">
-        <v>3.7776000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>33664</v>
       </c>
@@ -795,11 +711,8 @@
       <c r="C28" s="2">
         <v>24.55</v>
       </c>
-      <c r="D28">
-        <v>3.7970999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>33695</v>
       </c>
@@ -809,11 +722,8 @@
       <c r="C29" s="2">
         <v>24.62</v>
       </c>
-      <c r="D29">
-        <v>3.8163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>33725</v>
       </c>
@@ -823,11 +733,8 @@
       <c r="C30" s="2">
         <v>24.79</v>
       </c>
-      <c r="D30">
-        <v>3.8418999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>33756</v>
       </c>
@@ -837,11 +744,8 @@
       <c r="C31" s="2">
         <v>24.95</v>
       </c>
-      <c r="D31">
-        <v>3.8696999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>33786</v>
       </c>
@@ -851,11 +755,8 @@
       <c r="C32" s="2">
         <v>25.14</v>
       </c>
-      <c r="D32">
-        <v>3.9041999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33817</v>
       </c>
@@ -865,11 +766,8 @@
       <c r="C33" s="2">
         <v>25.37</v>
       </c>
-      <c r="D33">
-        <v>3.9487000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33848</v>
       </c>
@@ -879,11 +777,8 @@
       <c r="C34" s="2">
         <v>25.38</v>
       </c>
-      <c r="D34">
-        <v>3.9933000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33878</v>
       </c>
@@ -893,11 +788,8 @@
       <c r="C35" s="2">
         <v>25.51</v>
       </c>
-      <c r="D35">
-        <v>4.0235000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33909</v>
       </c>
@@ -907,11 +799,8 @@
       <c r="C36" s="2">
         <v>25.64</v>
       </c>
-      <c r="D36">
-        <v>4.0517000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33939</v>
       </c>
@@ -921,11 +810,8 @@
       <c r="C37" s="2">
         <v>25.73</v>
       </c>
-      <c r="D37">
-        <v>4.0845000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>33970</v>
       </c>
@@ -935,11 +821,8 @@
       <c r="C38" s="2">
         <v>26.16</v>
       </c>
-      <c r="D38">
-        <v>4.1077000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>34001</v>
       </c>
@@ -949,11 +832,8 @@
       <c r="C39" s="2">
         <v>26.41</v>
       </c>
-      <c r="D39">
-        <v>4.1345999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>34029</v>
       </c>
@@ -963,11 +843,8 @@
       <c r="C40" s="2">
         <v>26.4</v>
       </c>
-      <c r="D40">
-        <v>4.1645000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>34060</v>
       </c>
@@ -977,11 +854,8 @@
       <c r="C41" s="2">
         <v>26.43</v>
       </c>
-      <c r="D41">
-        <v>4.1929999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>34090</v>
       </c>
@@ -991,11 +865,8 @@
       <c r="C42" s="2">
         <v>26.63</v>
       </c>
-      <c r="D42">
-        <v>4.2225999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>34121</v>
       </c>
@@ -1005,11 +876,8 @@
       <c r="C43" s="2">
         <v>26.87</v>
       </c>
-      <c r="D43">
-        <v>4.2533000000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>34151</v>
       </c>
@@ -1019,11 +887,8 @@
       <c r="C44" s="2">
         <v>27.17</v>
       </c>
-      <c r="D44">
-        <v>4.2831999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>34182</v>
       </c>
@@ -1033,11 +898,8 @@
       <c r="C45" s="2">
         <v>27.65</v>
       </c>
-      <c r="D45">
-        <v>4.3099999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>34213</v>
       </c>
@@ -1047,11 +909,8 @@
       <c r="C46" s="2">
         <v>27.79</v>
       </c>
-      <c r="D46">
-        <v>4.3372999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>34243</v>
       </c>
@@ -1061,11 +920,8 @@
       <c r="C47" s="2">
         <v>27.93</v>
       </c>
-      <c r="D47">
-        <v>4.3715999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>34274</v>
       </c>
@@ -1075,11 +931,8 @@
       <c r="C48" s="2">
         <v>27.99</v>
       </c>
-      <c r="D48">
-        <v>4.4119999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>34304</v>
       </c>
@@ -1089,11 +942,8 @@
       <c r="C49" s="2">
         <v>28.12</v>
       </c>
-      <c r="D49">
-        <v>4.4526000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>34335</v>
       </c>
@@ -1103,11 +953,8 @@
       <c r="C50" s="2">
         <v>28.35</v>
       </c>
-      <c r="D50">
-        <v>4.4893999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>34366</v>
       </c>
@@ -1117,11 +964,8 @@
       <c r="C51" s="2">
         <v>28.51</v>
       </c>
-      <c r="D51">
-        <v>4.5213999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>34394</v>
       </c>
@@ -1131,11 +975,8 @@
       <c r="C52" s="2">
         <v>28.48</v>
       </c>
-      <c r="D52">
-        <v>4.5635000000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>34425</v>
       </c>
@@ -1145,11 +986,8 @@
       <c r="C53" s="2">
         <v>28.62</v>
       </c>
-      <c r="D53">
-        <v>4.5919999999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>34455</v>
       </c>
@@ -1159,11 +997,8 @@
       <c r="C54" s="2">
         <v>28.8</v>
       </c>
-      <c r="D54">
-        <v>4.6196999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>34486</v>
       </c>
@@ -1173,11 +1008,8 @@
       <c r="C55" s="2">
         <v>28.94</v>
       </c>
-      <c r="D55">
-        <v>4.6550000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>34516</v>
       </c>
@@ -1187,11 +1019,8 @@
       <c r="C56" s="2">
         <v>29.21</v>
       </c>
-      <c r="D56">
-        <v>4.6544999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>34547</v>
       </c>
@@ -1201,11 +1030,8 @@
       <c r="C57" s="2">
         <v>29.57</v>
       </c>
-      <c r="D57">
-        <v>4.6689999999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>34578</v>
       </c>
@@ -1215,11 +1041,8 @@
       <c r="C58" s="2">
         <v>29.75</v>
       </c>
-      <c r="D58">
-        <v>4.6802999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>34608</v>
       </c>
@@ -1229,11 +1052,8 @@
       <c r="C59" s="2">
         <v>29.97</v>
       </c>
-      <c r="D59">
-        <v>4.6706000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>34639</v>
       </c>
@@ -1243,11 +1063,8 @@
       <c r="C60" s="2">
         <v>30.48</v>
       </c>
-      <c r="D60">
-        <v>4.6859999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>34669</v>
       </c>
@@ -1257,11 +1074,8 @@
       <c r="C61" s="2">
         <v>30.52</v>
       </c>
-      <c r="D61">
-        <v>4.7047999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>34700</v>
       </c>
@@ -1271,11 +1085,8 @@
       <c r="C62" s="2">
         <v>30.77</v>
       </c>
-      <c r="D62">
-        <v>4.7202999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>34731</v>
       </c>
@@ -1285,11 +1096,8 @@
       <c r="C63" s="2">
         <v>30.94</v>
       </c>
-      <c r="D63">
-        <v>4.7306999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>34759</v>
       </c>
@@ -1299,11 +1107,8 @@
       <c r="C64" s="2">
         <v>31.23</v>
       </c>
-      <c r="D64">
-        <v>4.7489999999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>34790</v>
       </c>
@@ -1313,11 +1118,8 @@
       <c r="C65" s="2">
         <v>31.71</v>
       </c>
-      <c r="D65">
-        <v>4.7706999999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>34820</v>
       </c>
@@ -1327,11 +1129,8 @@
       <c r="C66" s="2">
         <v>31.86</v>
       </c>
-      <c r="D66">
-        <v>4.7667999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>34851</v>
       </c>
@@ -1341,11 +1140,8 @@
       <c r="C67" s="2">
         <v>32.08</v>
       </c>
-      <c r="D67">
-        <v>4.7877000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>34881</v>
       </c>
@@ -1355,11 +1151,8 @@
       <c r="C68" s="2">
         <v>32.21</v>
       </c>
-      <c r="D68">
-        <v>4.8048000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>34912</v>
       </c>
@@ -1369,11 +1162,8 @@
       <c r="C69" s="2">
         <v>32.369999999999997</v>
       </c>
-      <c r="D69">
-        <v>4.8284000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>34943</v>
       </c>
@@ -1383,11 +1173,8 @@
       <c r="C70" s="2">
         <v>32.54</v>
       </c>
-      <c r="D70">
-        <v>4.8517000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>34973</v>
       </c>
@@ -1397,11 +1184,8 @@
       <c r="C71" s="2">
         <v>33.15</v>
       </c>
-      <c r="D71">
-        <v>4.8632</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>35004</v>
       </c>
@@ -1411,11 +1195,8 @@
       <c r="C72" s="2">
         <v>33.75</v>
       </c>
-      <c r="D72">
-        <v>4.8813000000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>35034</v>
       </c>
@@ -1425,11 +1206,8 @@
       <c r="C73" s="2">
         <v>34.35</v>
       </c>
-      <c r="D73">
-        <v>4.9187000000000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>35065</v>
       </c>
@@ -1439,11 +1217,8 @@
       <c r="C74" s="2">
         <v>34.89</v>
       </c>
-      <c r="D74">
-        <v>4.9593999999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>35096</v>
       </c>
@@ -1453,11 +1228,8 @@
       <c r="C75" s="2">
         <v>35.85</v>
       </c>
-      <c r="D75">
-        <v>4.9809999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>35125</v>
       </c>
@@ -1467,11 +1239,8 @@
       <c r="C76" s="2">
         <v>35.770000000000003</v>
       </c>
-      <c r="D76">
-        <v>5.0034999999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>35156</v>
       </c>
@@ -1481,11 +1250,8 @@
       <c r="C77" s="2">
         <v>35.69</v>
       </c>
-      <c r="D77">
-        <v>5.0307000000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>35186</v>
       </c>
@@ -1495,11 +1261,8 @@
       <c r="C78" s="2">
         <v>35.83</v>
       </c>
-      <c r="D78">
-        <v>5.0609000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>35217</v>
       </c>
@@ -1509,11 +1272,8 @@
       <c r="C79" s="2">
         <v>36.020000000000003</v>
       </c>
-      <c r="D79">
-        <v>5.0667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>35247</v>
       </c>
@@ -1523,11 +1283,8 @@
       <c r="C80" s="2">
         <v>36.42</v>
       </c>
-      <c r="D80">
-        <v>5.0945</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>35278</v>
       </c>
@@ -1537,11 +1294,8 @@
       <c r="C81" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="D81">
-        <v>5.1196999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>35309</v>
       </c>
@@ -1551,11 +1305,8 @@
       <c r="C82" s="2">
         <v>36.86</v>
       </c>
-      <c r="D82">
-        <v>5.1435000000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>35339</v>
       </c>
@@ -1565,11 +1316,8 @@
       <c r="C83" s="2">
         <v>36.840000000000003</v>
       </c>
-      <c r="D83">
-        <v>5.1757999999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>35370</v>
       </c>
@@ -1579,11 +1327,8 @@
       <c r="C84" s="2">
         <v>37.020000000000003</v>
       </c>
-      <c r="D84">
-        <v>5.1767000000000003</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>35400</v>
       </c>
@@ -1593,11 +1338,8 @@
       <c r="C85" s="2">
         <v>37.090000000000003</v>
       </c>
-      <c r="D85">
-        <v>5.1783999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>35431</v>
       </c>
@@ -1607,11 +1349,8 @@
       <c r="C86" s="2">
         <v>37.08</v>
       </c>
-      <c r="D86">
-        <v>5.1993999999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>35462</v>
       </c>
@@ -1621,11 +1360,8 @@
       <c r="C87" s="2">
         <v>37.15</v>
       </c>
-      <c r="D87">
-        <v>5.2131999999999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>35490</v>
       </c>
@@ -1635,11 +1371,8 @@
       <c r="C88" s="2">
         <v>37.06</v>
       </c>
-      <c r="D88">
-        <v>5.2283999999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>35521</v>
       </c>
@@ -1649,11 +1382,8 @@
       <c r="C89" s="2">
         <v>37.270000000000003</v>
       </c>
-      <c r="D89">
-        <v>5.2352999999999996</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>35551</v>
       </c>
@@ -1663,11 +1393,8 @@
       <c r="C90" s="2">
         <v>37.54</v>
       </c>
-      <c r="D90">
-        <v>5.2257999999999996</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>35582</v>
       </c>
@@ -1677,11 +1404,8 @@
       <c r="C91" s="2">
         <v>37.89</v>
       </c>
-      <c r="D91">
-        <v>5.2272999999999996</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>35612</v>
       </c>
@@ -1691,11 +1415,8 @@
       <c r="C92" s="2">
         <v>38.369999999999997</v>
       </c>
-      <c r="D92">
-        <v>5.2416</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>35643</v>
       </c>
@@ -1705,11 +1426,8 @@
       <c r="C93" s="2">
         <v>38.619999999999997</v>
       </c>
-      <c r="D93">
-        <v>5.2655000000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>35674</v>
       </c>
@@ -1719,11 +1437,8 @@
       <c r="C94" s="2">
         <v>38.22</v>
       </c>
-      <c r="D94">
-        <v>5.2812999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>35704</v>
       </c>
@@ -1733,11 +1448,8 @@
       <c r="C95" s="2">
         <v>38.36</v>
       </c>
-      <c r="D95">
-        <v>5.3048000000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>35735</v>
       </c>
@@ -1747,11 +1459,8 @@
       <c r="C96" s="2">
         <v>38.409999999999997</v>
       </c>
-      <c r="D96">
-        <v>5.3273000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>35765</v>
       </c>
@@ -1761,11 +1470,8 @@
       <c r="C97" s="2">
         <v>39.58</v>
       </c>
-      <c r="D97">
-        <v>5.3552</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>35796</v>
       </c>
@@ -1775,11 +1481,8 @@
       <c r="C98" s="2">
         <v>40.14</v>
       </c>
-      <c r="D98">
-        <v>5.3773999999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>35827</v>
       </c>
@@ -1789,11 +1492,8 @@
       <c r="C99" s="2">
         <v>40.47</v>
       </c>
-      <c r="D99">
-        <v>5.4046000000000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>35855</v>
       </c>
@@ -1803,11 +1503,8 @@
       <c r="C100" s="2">
         <v>40.549999999999997</v>
       </c>
-      <c r="D100">
-        <v>5.4374000000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>35886</v>
       </c>
@@ -1817,11 +1514,8 @@
       <c r="C101" s="2">
         <v>40.67</v>
       </c>
-      <c r="D101">
-        <v>5.4726999999999997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>35916</v>
       </c>
@@ -1831,11 +1525,8 @@
       <c r="C102" s="2">
         <v>40.79</v>
       </c>
-      <c r="D102">
-        <v>5.4912999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>35947</v>
       </c>
@@ -1845,11 +1536,8 @@
       <c r="C103" s="2">
         <v>40.89</v>
       </c>
-      <c r="D103">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>35977</v>
       </c>
@@ -1859,11 +1547,8 @@
       <c r="C104" s="2">
         <v>40.98</v>
       </c>
-      <c r="D104">
-        <v>5.5316000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>36008</v>
       </c>
@@ -1873,11 +1558,8 @@
       <c r="C105" s="2">
         <v>40.99</v>
       </c>
-      <c r="D105">
-        <v>5.5465</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>36039</v>
       </c>
@@ -1887,11 +1569,8 @@
       <c r="C106" s="2">
         <v>40.97</v>
       </c>
-      <c r="D106">
-        <v>5.5677000000000003</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>36069</v>
       </c>
@@ -1901,11 +1580,8 @@
       <c r="C107" s="2">
         <v>41.37</v>
       </c>
-      <c r="D107">
-        <v>5.5941999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>36100</v>
       </c>
@@ -1915,11 +1591,8 @@
       <c r="C108" s="2">
         <v>41.39</v>
       </c>
-      <c r="D108">
-        <v>5.6132999999999997</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>36130</v>
       </c>
@@ -1929,11 +1602,8 @@
       <c r="C109" s="2">
         <v>41.32</v>
       </c>
-      <c r="D109">
-        <v>5.6360999999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>36161</v>
       </c>
@@ -1943,11 +1613,8 @@
       <c r="C110" s="2">
         <v>41.38</v>
       </c>
-      <c r="D110">
-        <v>5.6574</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>36192</v>
       </c>
@@ -1957,11 +1624,8 @@
       <c r="C111" s="2">
         <v>41.54</v>
       </c>
-      <c r="D111">
-        <v>5.6832000000000003</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>36220</v>
       </c>
@@ -1971,11 +1635,8 @@
       <c r="C112" s="2">
         <v>41.36</v>
       </c>
-      <c r="D112">
-        <v>5.7129000000000003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>36251</v>
       </c>
@@ -1985,11 +1646,8 @@
       <c r="C113" s="2">
         <v>41.3</v>
       </c>
-      <c r="D113">
-        <v>5.7430000000000003</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>36281</v>
       </c>
@@ -1999,11 +1657,8 @@
       <c r="C114" s="2">
         <v>41.34</v>
       </c>
-      <c r="D114">
-        <v>5.7739000000000003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>36312</v>
       </c>
@@ -2013,11 +1668,8 @@
       <c r="C115" s="2">
         <v>41.49</v>
       </c>
-      <c r="D115">
-        <v>5.7987000000000002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>36342</v>
       </c>
@@ -2027,11 +1679,8 @@
       <c r="C116" s="2">
         <v>41.57</v>
       </c>
-      <c r="D116">
-        <v>5.8376999999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>36373</v>
       </c>
@@ -2041,11 +1690,8 @@
       <c r="C117" s="2">
         <v>41.79</v>
       </c>
-      <c r="D117">
-        <v>5.8712999999999997</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>36404</v>
       </c>
@@ -2055,11 +1701,8 @@
       <c r="C118" s="2">
         <v>42.04</v>
       </c>
-      <c r="D118">
-        <v>5.9062999999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>36434</v>
       </c>
@@ -2069,11 +1712,8 @@
       <c r="C119" s="2">
         <v>42.34</v>
       </c>
-      <c r="D119">
-        <v>5.9402999999999997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>36465</v>
       </c>
@@ -2083,11 +1723,8 @@
       <c r="C120" s="2">
         <v>42.36</v>
       </c>
-      <c r="D120">
-        <v>5.9669999999999996</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>36495</v>
       </c>
@@ -2097,11 +1734,8 @@
       <c r="C121" s="2">
         <v>42.62</v>
       </c>
-      <c r="D121">
-        <v>5.9903000000000004</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>36526</v>
       </c>
@@ -2111,11 +1745,8 @@
       <c r="C122" s="2">
         <v>42.84</v>
       </c>
-      <c r="D122">
-        <v>6.0155000000000003</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>36557</v>
       </c>
@@ -2125,11 +1756,8 @@
       <c r="C123" s="2">
         <v>43.02</v>
       </c>
-      <c r="D123">
-        <v>6.0479000000000003</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>36586</v>
       </c>
@@ -2139,11 +1767,8 @@
       <c r="C124" s="2">
         <v>43.28</v>
       </c>
-      <c r="D124">
-        <v>6.0834999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>36617</v>
       </c>
@@ -2153,11 +1778,8 @@
       <c r="C125" s="2">
         <v>43.7</v>
       </c>
-      <c r="D125">
-        <v>6.1157000000000004</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>36647</v>
       </c>
@@ -2167,11 +1789,8 @@
       <c r="C126" s="2">
         <v>43.15</v>
       </c>
-      <c r="D126">
-        <v>6.1477000000000004</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>36678</v>
       </c>
@@ -2181,11 +1800,8 @@
       <c r="C127" s="2">
         <v>43.24</v>
       </c>
-      <c r="D127">
-        <v>6.1772999999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>36708</v>
       </c>
@@ -2195,11 +1811,8 @@
       <c r="C128" s="2">
         <v>43.55</v>
       </c>
-      <c r="D128">
-        <v>6.2068000000000003</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>36739</v>
       </c>
@@ -2209,11 +1822,8 @@
       <c r="C129" s="2">
         <v>43.72</v>
       </c>
-      <c r="D129">
-        <v>6.2381000000000002</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>36770</v>
       </c>
@@ -2223,11 +1833,8 @@
       <c r="C130" s="2">
         <v>44.53</v>
       </c>
-      <c r="D130">
-        <v>6.2706999999999997</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>36800</v>
       </c>
@@ -2237,11 +1844,8 @@
       <c r="C131" s="2">
         <v>45.12</v>
       </c>
-      <c r="D131">
-        <v>6.3018999999999998</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>36831</v>
       </c>
@@ -2251,11 +1855,8 @@
       <c r="C132" s="2">
         <v>43.97</v>
       </c>
-      <c r="D132">
-        <v>6.3362999999999996</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>36861</v>
       </c>
@@ -2265,11 +1866,8 @@
       <c r="C133" s="2">
         <v>44.07</v>
       </c>
-      <c r="D133">
-        <v>6.3787000000000003</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>36892</v>
       </c>
@@ -2279,11 +1877,8 @@
       <c r="C134" s="2">
         <v>44.17</v>
       </c>
-      <c r="D134">
-        <v>6.4170999999999996</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>36923</v>
       </c>
@@ -2293,11 +1888,8 @@
       <c r="C135" s="2">
         <v>44.16</v>
       </c>
-      <c r="D135">
-        <v>6.4406999999999996</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>36951</v>
       </c>
@@ -2307,11 +1899,8 @@
       <c r="C136" s="2">
         <v>44.06</v>
       </c>
-      <c r="D136">
-        <v>6.4760999999999997</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>36982</v>
       </c>
@@ -2321,11 +1910,8 @@
       <c r="C137" s="2">
         <v>44.15</v>
       </c>
-      <c r="D137">
-        <v>6.5096999999999996</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>37012</v>
       </c>
@@ -2335,11 +1921,8 @@
       <c r="C138" s="2">
         <v>44.07</v>
       </c>
-      <c r="D138">
-        <v>6.5384000000000002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>37043</v>
       </c>
@@ -2349,11 +1932,8 @@
       <c r="C139" s="2">
         <v>44.4</v>
       </c>
-      <c r="D139">
-        <v>6.5812999999999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>37073</v>
       </c>
@@ -2363,11 +1943,8 @@
       <c r="C140" s="2">
         <v>44.93</v>
       </c>
-      <c r="D140">
-        <v>6.6329000000000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>37104</v>
       </c>
@@ -2377,11 +1954,8 @@
       <c r="C141" s="2">
         <v>44.63</v>
       </c>
-      <c r="D141">
-        <v>6.6848000000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>37135</v>
       </c>
@@ -2391,11 +1965,8 @@
       <c r="C142" s="2">
         <v>44.52</v>
       </c>
-      <c r="D142">
-        <v>6.7220000000000004</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>37165</v>
       </c>
@@ -2405,11 +1976,8 @@
       <c r="C143" s="2">
         <v>44.55</v>
       </c>
-      <c r="D143">
-        <v>6.7645</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>37196</v>
       </c>
@@ -2419,11 +1987,8 @@
       <c r="C144" s="2">
         <v>44.45</v>
       </c>
-      <c r="D144">
-        <v>6.8097000000000003</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>37226</v>
       </c>
@@ -2433,11 +1998,8 @@
       <c r="C145" s="2">
         <v>44.48</v>
       </c>
-      <c r="D145">
-        <v>6.8258000000000001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>37257</v>
       </c>
@@ -2447,11 +2009,8 @@
       <c r="C146" s="2">
         <v>44.47</v>
       </c>
-      <c r="D146">
-        <v>6.8712999999999997</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>37288</v>
       </c>
@@ -2461,11 +2020,8 @@
       <c r="C147" s="2">
         <v>44.57</v>
       </c>
-      <c r="D147">
-        <v>6.9481999999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>37316</v>
       </c>
@@ -2475,11 +2031,8 @@
       <c r="C148" s="2">
         <v>44.43</v>
       </c>
-      <c r="D148">
-        <v>7.0061</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>37347</v>
       </c>
@@ -2489,11 +2042,8 @@
       <c r="C149" s="2">
         <v>44.42</v>
       </c>
-      <c r="D149">
-        <v>7.0552999999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>37377</v>
       </c>
@@ -2503,11 +2053,8 @@
       <c r="C150" s="2">
         <v>44.44</v>
       </c>
-      <c r="D150">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>37408</v>
       </c>
@@ -2517,11 +2064,8 @@
       <c r="C151" s="2">
         <v>44.48</v>
       </c>
-      <c r="D151">
-        <v>7.1390000000000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>37438</v>
       </c>
@@ -2531,11 +2075,8 @@
       <c r="C152" s="2">
         <v>44.67</v>
       </c>
-      <c r="D152">
-        <v>7.2012999999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>37469</v>
       </c>
@@ -2545,11 +2086,8 @@
       <c r="C153" s="2">
         <v>44.77</v>
       </c>
-      <c r="D153">
-        <v>7.2676999999999996</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>37500</v>
       </c>
@@ -2559,11 +2097,8 @@
       <c r="C154" s="2">
         <v>44.97</v>
       </c>
-      <c r="D154">
-        <v>7.3253000000000004</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>37530</v>
       </c>
@@ -2573,11 +2108,8 @@
       <c r="C155" s="2">
         <v>45.22</v>
       </c>
-      <c r="D155">
-        <v>7.3813000000000004</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>37561</v>
       </c>
@@ -2587,11 +2119,8 @@
       <c r="C156" s="2">
         <v>45.46</v>
       </c>
-      <c r="D156">
-        <v>7.4226999999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>37591</v>
       </c>
@@ -2601,11 +2130,8 @@
       <c r="C157" s="2">
         <v>45.56</v>
       </c>
-      <c r="D157">
-        <v>7.4722999999999997</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>37622</v>
       </c>
@@ -2615,11 +2141,8 @@
       <c r="C158" s="2">
         <v>45.75</v>
       </c>
-      <c r="D158">
-        <v>7.5305999999999997</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>37653</v>
       </c>
@@ -2629,11 +2152,8 @@
       <c r="C159" s="2">
         <v>45.65</v>
       </c>
-      <c r="D159">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>37681</v>
       </c>
@@ -2643,11 +2163,8 @@
       <c r="C160" s="2">
         <v>45.68</v>
       </c>
-      <c r="D160">
-        <v>7.5868000000000002</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>37712</v>
       </c>
@@ -2657,11 +2174,8 @@
       <c r="C161" s="2">
         <v>45.82</v>
       </c>
-      <c r="D161">
-        <v>7.609</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>37742</v>
       </c>
@@ -2671,11 +2185,8 @@
       <c r="C162" s="2">
         <v>45.83</v>
       </c>
-      <c r="D162">
-        <v>7.6173999999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>37773</v>
       </c>
@@ -2685,11 +2196,8 @@
       <c r="C163" s="2">
         <v>45.92</v>
       </c>
-      <c r="D163">
-        <v>7.6459999999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>37803</v>
       </c>
@@ -2699,11 +2207,8 @@
       <c r="C164" s="2">
         <v>46.19</v>
       </c>
-      <c r="D164">
-        <v>7.6787000000000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>37834</v>
       </c>
@@ -2713,11 +2218,8 @@
       <c r="C165" s="2">
         <v>46.49</v>
       </c>
-      <c r="D165">
-        <v>7.7115999999999998</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>37865</v>
       </c>
@@ -2727,11 +2229,8 @@
       <c r="C166" s="2">
         <v>46.6</v>
       </c>
-      <c r="D166">
-        <v>7.7416999999999998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>37895</v>
       </c>
@@ -2741,11 +2240,8 @@
       <c r="C167" s="2">
         <v>47.18</v>
       </c>
-      <c r="D167">
-        <v>7.7603</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>37926</v>
       </c>
@@ -2755,11 +2251,8 @@
       <c r="C168" s="2">
         <v>46.94</v>
       </c>
-      <c r="D168">
-        <v>7.7752999999999997</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>37956</v>
       </c>
@@ -2769,11 +2262,8 @@
       <c r="C169" s="2">
         <v>47.36</v>
       </c>
-      <c r="D169">
-        <v>7.8125999999999998</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>37987</v>
       </c>
@@ -2783,11 +2273,8 @@
       <c r="C170" s="2">
         <v>47.65</v>
       </c>
-      <c r="D170">
-        <v>7.851</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>38018</v>
       </c>
@@ -2797,11 +2284,8 @@
       <c r="C171" s="2">
         <v>47.74</v>
       </c>
-      <c r="D171">
-        <v>7.8613999999999997</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>38047</v>
       </c>
@@ -2811,11 +2295,8 @@
       <c r="C172" s="2">
         <v>47.62</v>
       </c>
-      <c r="D172">
-        <v>7.8948</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>38078</v>
       </c>
@@ -2825,11 +2306,8 @@
       <c r="C173" s="2">
         <v>47.63</v>
       </c>
-      <c r="D173">
-        <v>7.9023000000000003</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>38108</v>
       </c>
@@ -2839,11 +2317,8 @@
       <c r="C174" s="2">
         <v>47.82</v>
       </c>
-      <c r="D174">
-        <v>7.9161000000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>38139</v>
       </c>
@@ -2853,11 +2328,8 @@
       <c r="C175" s="2">
         <v>48.18</v>
       </c>
-      <c r="D175">
-        <v>7.9279999999999999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>38169</v>
       </c>
@@ -2867,11 +2339,8 @@
       <c r="C176" s="2">
         <v>48.43</v>
       </c>
-      <c r="D176">
-        <v>7.9416000000000002</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>38200</v>
       </c>
@@ -2881,11 +2350,8 @@
       <c r="C177" s="2">
         <v>48.6</v>
       </c>
-      <c r="D177">
-        <v>7.9645000000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>38231</v>
       </c>
@@ -2895,11 +2361,8 @@
       <c r="C178" s="2">
         <v>48.59</v>
       </c>
-      <c r="D178">
-        <v>7.992</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>38261</v>
       </c>
@@ -2909,11 +2372,8 @@
       <c r="C179" s="2">
         <v>48.98</v>
       </c>
-      <c r="D179">
-        <v>8.0165000000000006</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>38292</v>
       </c>
@@ -2923,11 +2383,8 @@
       <c r="C180" s="2">
         <v>49.25</v>
       </c>
-      <c r="D180">
-        <v>8.0373000000000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>38322</v>
       </c>
@@ -2937,11 +2394,8 @@
       <c r="C181" s="2">
         <v>49.55</v>
       </c>
-      <c r="D181">
-        <v>8.0496999999999996</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>38353</v>
       </c>
@@ -2951,11 +2405,8 @@
       <c r="C182" s="2">
         <v>50.23</v>
       </c>
-      <c r="D182">
-        <v>8.0655000000000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>38384</v>
       </c>
@@ -2965,11 +2416,8 @@
       <c r="C183" s="2">
         <v>50.25</v>
       </c>
-      <c r="D183">
-        <v>8.0742999999999991</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>38412</v>
       </c>
@@ -2979,11 +2427,8 @@
       <c r="C184" s="2">
         <v>50.33</v>
       </c>
-      <c r="D184">
-        <v>8.0919399999999992</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>38443</v>
       </c>
@@ -2993,11 +2438,8 @@
       <c r="C185" s="2">
         <v>50.15</v>
       </c>
-      <c r="D185">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>38473</v>
       </c>
@@ -3007,11 +2449,8 @@
       <c r="C186" s="2">
         <v>50.48</v>
       </c>
-      <c r="D186">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>38504</v>
       </c>
@@ -3021,11 +2460,8 @@
       <c r="C187" s="2">
         <v>51.26</v>
       </c>
-      <c r="D187">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>38534</v>
       </c>
@@ -3035,11 +2471,8 @@
       <c r="C188" s="2">
         <v>51.02</v>
       </c>
-      <c r="D188">
-        <v>8.0947999999999993</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>38565</v>
       </c>
@@ -3049,11 +2482,8 @@
       <c r="C189" s="2">
         <v>51.2</v>
       </c>
-      <c r="D189">
-        <v>8.09</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>38596</v>
       </c>
@@ -3063,11 +2493,8 @@
       <c r="C190" s="2">
         <v>51.28</v>
       </c>
-      <c r="D190">
-        <v>8.0839999999999996</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>38626</v>
       </c>
@@ -3077,11 +2504,8 @@
       <c r="C191" s="2">
         <v>51.47</v>
       </c>
-      <c r="D191">
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>38657</v>
       </c>
@@ -3091,11 +2515,8 @@
       <c r="C192" s="2">
         <v>51.69</v>
       </c>
-      <c r="D192">
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>38687</v>
       </c>
@@ -3105,11 +2526,8 @@
       <c r="C193" s="2">
         <v>51.98</v>
       </c>
-      <c r="D193">
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>38718</v>
       </c>
@@ -3119,11 +2537,8 @@
       <c r="C194" s="2">
         <v>52.19</v>
       </c>
-      <c r="D194">
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>38749</v>
       </c>
@@ -3133,11 +2548,8 @@
       <c r="C195" s="2">
         <v>52.35</v>
       </c>
-      <c r="D195">
-        <v>8.0736000000000008</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>38777</v>
       </c>
@@ -3147,11 +2559,8 @@
       <c r="C196" s="2">
         <v>52.21</v>
       </c>
-      <c r="D196">
-        <v>8.07</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>38808</v>
       </c>
@@ -3161,11 +2570,8 @@
       <c r="C197" s="2">
         <v>52.28</v>
       </c>
-      <c r="D197">
-        <v>8.0690000000000008</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>38838</v>
       </c>
@@ -3175,11 +2581,8 @@
       <c r="C198" s="2">
         <v>52.72</v>
       </c>
-      <c r="D198">
-        <v>8.06</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>38869</v>
       </c>
@@ -3189,11 +2592,8 @@
       <c r="C199" s="2">
         <v>53.05</v>
       </c>
-      <c r="D199">
-        <v>8.06</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>38899</v>
       </c>
@@ -3203,11 +2603,8 @@
       <c r="C200" s="2">
         <v>53.35</v>
       </c>
-      <c r="D200">
-        <v>8.06</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>38930</v>
       </c>
@@ -3217,11 +2614,8 @@
       <c r="C201" s="2">
         <v>53.45</v>
       </c>
-      <c r="D201">
-        <v>8.0558099999999992</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>38961</v>
       </c>
@@ -3231,11 +2625,8 @@
       <c r="C202" s="2">
         <v>53.49</v>
       </c>
-      <c r="D202">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>38991</v>
       </c>
@@ -3245,11 +2636,8 @@
       <c r="C203" s="2">
         <v>53.74</v>
       </c>
-      <c r="D203">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>39022</v>
       </c>
@@ -3259,11 +2647,8 @@
       <c r="C204" s="2">
         <v>54.14</v>
       </c>
-      <c r="D204">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>39052</v>
       </c>
@@ -3273,11 +2658,8 @@
       <c r="C205" s="2">
         <v>54.55</v>
       </c>
-      <c r="D205">
-        <v>8.0383999999999993</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>39083</v>
       </c>
@@ -3287,11 +2669,8 @@
       <c r="C206" s="2">
         <v>55.33</v>
       </c>
-      <c r="D206">
-        <v>8.0154800000000002</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>39114</v>
       </c>
@@ -3301,11 +2680,8 @@
       <c r="C207" s="2">
         <v>55.8</v>
       </c>
-      <c r="D207">
-        <v>8.0050000000000008</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>39142</v>
       </c>
@@ -3315,11 +2691,8 @@
       <c r="C208" s="2">
         <v>55.96</v>
       </c>
-      <c r="D208">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>39173</v>
       </c>
@@ -3329,11 +2702,8 @@
       <c r="C209" s="2">
         <v>55.82</v>
       </c>
-      <c r="D209">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>39203</v>
       </c>
@@ -3343,11 +2713,8 @@
       <c r="C210" s="2">
         <v>56.07</v>
       </c>
-      <c r="D210">
-        <v>7.9771000000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>39234</v>
       </c>
@@ -3357,11 +2724,8 @@
       <c r="C211" s="2">
         <v>56.55</v>
       </c>
-      <c r="D211">
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>39264</v>
       </c>
@@ -3371,11 +2735,8 @@
       <c r="C212" s="2">
         <v>58.06</v>
       </c>
-      <c r="D212">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>39295</v>
       </c>
@@ -3385,11 +2746,8 @@
       <c r="C213" s="2">
         <v>58.98</v>
       </c>
-      <c r="D213">
-        <v>7.8377400000000002</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>39326</v>
       </c>
@@ -3399,11 +2757,8 @@
       <c r="C214" s="2">
         <v>59.1</v>
       </c>
-      <c r="D214">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>39356</v>
       </c>
@@ -3413,11 +2768,8 @@
       <c r="C215" s="2">
         <v>59.83</v>
       </c>
-      <c r="D215">
-        <v>7.7983900000000004</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>39387</v>
       </c>
@@ -3427,11 +2779,8 @@
       <c r="C216" s="2">
         <v>60.57</v>
       </c>
-      <c r="D216">
-        <v>7.7533300000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>39417</v>
       </c>
@@ -3441,11 +2790,8 @@
       <c r="C217" s="2">
         <v>60.95</v>
       </c>
-      <c r="D217">
-        <v>7.6945199999999998</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>39448</v>
       </c>
@@ -3455,11 +2801,8 @@
       <c r="C218" s="2">
         <v>61.61</v>
       </c>
-      <c r="D218">
-        <v>7.6532299999999998</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>39479</v>
       </c>
@@ -3469,11 +2812,8 @@
       <c r="C219" s="2">
         <v>63.23</v>
       </c>
-      <c r="D219">
-        <v>7.59483</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>39508</v>
       </c>
@@ -3483,11 +2823,8 @@
       <c r="C220" s="2">
         <v>63.84</v>
       </c>
-      <c r="D220">
-        <v>7.5516100000000002</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>39539</v>
       </c>
@@ -3497,11 +2834,8 @@
       <c r="C221" s="2">
         <v>64.31</v>
       </c>
-      <c r="D221">
-        <v>7.4539999999999997</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>39569</v>
       </c>
@@ -3511,11 +2845,8 @@
       <c r="C222" s="2">
         <v>65.52</v>
       </c>
-      <c r="D222">
-        <v>7.3458100000000002</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>39600</v>
       </c>
@@ -3525,11 +2856,8 @@
       <c r="C223" s="2">
         <v>66.34</v>
       </c>
-      <c r="D223">
-        <v>7.2679999999999998</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>39630</v>
       </c>
@@ -3539,11 +2867,8 @@
       <c r="C224" s="2">
         <v>66.650000000000006</v>
       </c>
-      <c r="D224">
-        <v>7.1787099999999997</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>39661</v>
       </c>
@@ -3553,11 +2878,8 @@
       <c r="C225" s="2">
         <v>67.08</v>
       </c>
-      <c r="D225">
-        <v>7.11355</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>39692</v>
       </c>
@@ -3567,11 +2889,8 @@
       <c r="C226" s="2">
         <v>67.67</v>
       </c>
-      <c r="D226">
-        <v>7.09</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>39722</v>
       </c>
@@ -3581,11 +2900,8 @@
       <c r="C227" s="2">
         <v>67.790000000000006</v>
       </c>
-      <c r="D227">
-        <v>7.0719399999999997</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>39753</v>
       </c>
@@ -3595,11 +2911,8 @@
       <c r="C228" s="2">
         <v>67.88</v>
       </c>
-      <c r="D228">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>39783</v>
       </c>
@@ -3609,11 +2922,8 @@
       <c r="C229" s="2">
         <v>68.17</v>
       </c>
-      <c r="D229">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>39814</v>
       </c>
@@ -3623,11 +2933,8 @@
       <c r="C230" s="2">
         <v>68.42</v>
       </c>
-      <c r="D230">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>39845</v>
       </c>
@@ -3637,11 +2944,8 @@
       <c r="C231" s="2">
         <v>68.37</v>
       </c>
-      <c r="D231">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>39873</v>
       </c>
@@ -3651,11 +2955,8 @@
       <c r="C232" s="2">
         <v>68.03</v>
       </c>
-      <c r="D232">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>39904</v>
       </c>
@@ -3665,11 +2966,8 @@
       <c r="C233" s="2">
         <v>67.739999999999995</v>
       </c>
-      <c r="D233">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>39934</v>
       </c>
@@ -3679,11 +2977,8 @@
       <c r="C234" s="2">
         <v>67.61</v>
       </c>
-      <c r="D234">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>39965</v>
       </c>
@@ -3693,11 +2988,8 @@
       <c r="C235" s="2">
         <v>67.75</v>
       </c>
-      <c r="D235">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>39995</v>
       </c>
@@ -3707,11 +2999,8 @@
       <c r="C236" s="2">
         <v>67.61</v>
       </c>
-      <c r="D236">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>40026</v>
       </c>
@@ -3721,11 +3010,8 @@
       <c r="C237" s="2">
         <v>68.03</v>
       </c>
-      <c r="D237">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>40057</v>
       </c>
@@ -3735,11 +3021,8 @@
       <c r="C238" s="2">
         <v>68.11</v>
       </c>
-      <c r="D238">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>40087</v>
       </c>
@@ -3749,11 +3032,8 @@
       <c r="C239" s="2">
         <v>68.319999999999993</v>
       </c>
-      <c r="D239">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>40118</v>
       </c>
@@ -3763,11 +3043,8 @@
       <c r="C240" s="2">
         <v>68.19</v>
       </c>
-      <c r="D240">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>40148</v>
       </c>
@@ -3777,11 +3054,8 @@
       <c r="C241" s="2">
         <v>68.349999999999994</v>
       </c>
-      <c r="D241">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>40179</v>
       </c>
@@ -3791,11 +3065,8 @@
       <c r="C242" s="2">
         <v>68.47</v>
       </c>
-      <c r="D242">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>40210</v>
       </c>
@@ -3805,11 +3076,8 @@
       <c r="C243" s="2">
         <v>68.58</v>
       </c>
-      <c r="D243">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>40238</v>
       </c>
@@ -3819,11 +3087,8 @@
       <c r="C244" s="2">
         <v>68.5</v>
       </c>
-      <c r="D244">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>40269</v>
       </c>
@@ -3833,11 +3098,8 @@
       <c r="C245" s="2">
         <v>68.56</v>
       </c>
-      <c r="D245">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>40299</v>
       </c>
@@ -3847,11 +3109,8 @@
       <c r="C246" s="2">
         <v>68.55</v>
       </c>
-      <c r="D246">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>40330</v>
       </c>
@@ -3861,11 +3120,8 @@
       <c r="C247" s="2">
         <v>68.650000000000006</v>
       </c>
-      <c r="D247">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>40360</v>
       </c>
@@ -3875,11 +3131,8 @@
       <c r="C248" s="2">
         <v>69.069999999999993</v>
       </c>
-      <c r="D248">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>40391</v>
       </c>
@@ -3889,11 +3142,8 @@
       <c r="C249" s="2">
         <v>69.8</v>
       </c>
-      <c r="D249">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>40422</v>
       </c>
@@ -3903,11 +3153,8 @@
       <c r="C250" s="2">
         <v>70.34</v>
       </c>
-      <c r="D250">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>40452</v>
       </c>
@@ -3917,11 +3164,8 @@
       <c r="C251" s="2">
         <v>71.2</v>
       </c>
-      <c r="D251">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>40483</v>
       </c>
@@ -3931,11 +3175,8 @@
       <c r="C252" s="2">
         <v>71.989999999999995</v>
       </c>
-      <c r="D252">
-        <v>7.0676699999999997</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>40513</v>
       </c>
@@ -3945,11 +3186,8 @@
       <c r="C253" s="2">
         <v>73.260000000000005</v>
       </c>
-      <c r="D253">
-        <v>7.0477400000000001</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>40544</v>
       </c>
@@ -3959,11 +3197,8 @@
       <c r="C254" s="2">
         <v>74.209999999999994</v>
       </c>
-      <c r="D254">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>40575</v>
       </c>
@@ -3973,11 +3208,8 @@
       <c r="C255" s="2">
         <v>75.44</v>
       </c>
-      <c r="D255">
-        <v>7.0264300000000004</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>40603</v>
       </c>
@@ -3987,11 +3219,8 @@
       <c r="C256" s="2">
         <v>76.11</v>
       </c>
-      <c r="D256">
-        <v>7.0071000000000003</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>40634</v>
       </c>
@@ -4001,11 +3230,8 @@
       <c r="C257" s="2">
         <v>76.13</v>
       </c>
-      <c r="D257">
-        <v>6.9926700000000004</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>40664</v>
       </c>
@@ -4015,11 +3241,8 @@
       <c r="C258" s="2">
         <v>76.28</v>
       </c>
-      <c r="D258">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>40695</v>
       </c>
@@ -4029,11 +3252,8 @@
       <c r="C259" s="2">
         <v>76.39</v>
       </c>
-      <c r="D259">
-        <v>6.9809999999999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>40725</v>
       </c>
@@ -4043,11 +3263,8 @@
       <c r="C260" s="2">
         <v>76.790000000000006</v>
       </c>
-      <c r="D260">
-        <v>6.9761300000000004</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>40756</v>
       </c>
@@ -4057,11 +3274,8 @@
       <c r="C261" s="2">
         <v>77.08</v>
       </c>
-      <c r="D261">
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>40787</v>
       </c>
@@ -4071,11 +3285,8 @@
       <c r="C262" s="2">
         <v>77.319999999999993</v>
       </c>
-      <c r="D262">
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>40817</v>
       </c>
@@ -4085,11 +3296,8 @@
       <c r="C263" s="2">
         <v>77.69</v>
       </c>
-      <c r="D263">
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>40848</v>
       </c>
@@ -4099,11 +3307,8 @@
       <c r="C264" s="2">
         <v>77.94</v>
       </c>
-      <c r="D264">
-        <v>6.9603299999999999</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>40878</v>
       </c>
@@ -4113,11 +3318,8 @@
       <c r="C265" s="2">
         <v>78.319999999999993</v>
       </c>
-      <c r="D265">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>40909</v>
       </c>
@@ -4127,11 +3329,8 @@
       <c r="C266" s="2">
         <v>78.55</v>
       </c>
-      <c r="D266">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>40940</v>
       </c>
@@ -4141,11 +3340,8 @@
       <c r="C267" s="2">
         <v>78.94</v>
       </c>
-      <c r="D267">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>40969</v>
       </c>
@@ -4155,11 +3351,8 @@
       <c r="C268" s="2">
         <v>79.17</v>
       </c>
-      <c r="D268">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>41000</v>
       </c>
@@ -4169,11 +3362,8 @@
       <c r="C269" s="2">
         <v>79.3</v>
       </c>
-      <c r="D269">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>41030</v>
       </c>
@@ -4183,11 +3373,8 @@
       <c r="C270" s="2">
         <v>79.69</v>
       </c>
-      <c r="D270">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>41061</v>
       </c>
@@ -4197,11 +3384,8 @@
       <c r="C271" s="2">
         <v>79.86</v>
       </c>
-      <c r="D271">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>41091</v>
       </c>
@@ -4211,11 +3395,8 @@
       <c r="C272" s="2">
         <v>80.16</v>
       </c>
-      <c r="D272">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>41122</v>
       </c>
@@ -4225,11 +3406,8 @@
       <c r="C273" s="2">
         <v>80.45</v>
       </c>
-      <c r="D273">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>41153</v>
       </c>
@@ -4239,11 +3417,8 @@
       <c r="C274" s="2">
         <v>80.75</v>
       </c>
-      <c r="D274">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>41183</v>
       </c>
@@ -4253,11 +3428,8 @@
       <c r="C275" s="2">
         <v>81.05</v>
       </c>
-      <c r="D275">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>41214</v>
       </c>
@@ -4267,11 +3439,8 @@
       <c r="C276" s="2">
         <v>81.44</v>
       </c>
-      <c r="D276">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>41244</v>
       </c>
@@ -4281,11 +3450,8 @@
       <c r="C277" s="2">
         <v>81.87</v>
       </c>
-      <c r="D277">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>41275</v>
       </c>
@@ -4295,11 +3461,8 @@
       <c r="C278" s="2">
         <v>82.42</v>
       </c>
-      <c r="D278">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>41306</v>
       </c>
@@ -4309,11 +3472,8 @@
       <c r="C279" s="2">
         <v>82.95</v>
       </c>
-      <c r="D279">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>41334</v>
       </c>
@@ -4323,11 +3483,8 @@
       <c r="C280" s="2">
         <v>83.16</v>
       </c>
-      <c r="D280">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>41365</v>
       </c>
@@ -4337,11 +3494,8 @@
       <c r="C281" s="2">
         <v>83.22</v>
       </c>
-      <c r="D281">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>41395</v>
       </c>
@@ -4351,11 +3505,8 @@
       <c r="C282" s="2">
         <v>83.45</v>
       </c>
-      <c r="D282">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>41426</v>
       </c>
@@ -4365,11 +3516,8 @@
       <c r="C283" s="2">
         <v>83.7</v>
       </c>
-      <c r="D283">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>41456</v>
       </c>
@@ -4379,11 +3527,8 @@
       <c r="C284" s="2">
         <v>84.21</v>
       </c>
-      <c r="D284">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>41487</v>
       </c>
@@ -4393,11 +3538,8 @@
       <c r="C285" s="2">
         <v>85.34</v>
       </c>
-      <c r="D285">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>41518</v>
       </c>
@@ -4407,11 +3549,8 @@
       <c r="C286" s="2">
         <v>86.5</v>
       </c>
-      <c r="D286">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>41548</v>
       </c>
@@ -4421,11 +3560,8 @@
       <c r="C287" s="2">
         <v>87.13</v>
       </c>
-      <c r="D287">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>41579</v>
       </c>
@@ -4435,11 +3571,8 @@
       <c r="C288" s="2">
         <v>87.11</v>
       </c>
-      <c r="D288">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>41609</v>
       </c>
@@ -4449,11 +3582,8 @@
       <c r="C289" s="2">
         <v>87.18</v>
       </c>
-      <c r="D289">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>41640</v>
       </c>
@@ -4463,11 +3593,8 @@
       <c r="C290" s="2">
         <v>87.41</v>
       </c>
-      <c r="D290">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>41671</v>
       </c>
@@ -4477,11 +3604,8 @@
       <c r="C291" s="2">
         <v>88.07</v>
       </c>
-      <c r="D291">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>41699</v>
       </c>
@@ -4491,11 +3615,8 @@
       <c r="C292" s="2">
         <v>88.25</v>
       </c>
-      <c r="D292">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>41730</v>
       </c>
@@ -4505,11 +3626,8 @@
       <c r="C293" s="2">
         <v>88.4</v>
       </c>
-      <c r="D293">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>41760</v>
       </c>
@@ -4519,11 +3637,8 @@
       <c r="C294" s="2">
         <v>88.77</v>
       </c>
-      <c r="D294">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>41791</v>
       </c>
@@ -4533,11 +3648,8 @@
       <c r="C295" s="2">
         <v>89.84</v>
       </c>
-      <c r="D295">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>41821</v>
       </c>
@@ -4547,11 +3659,8 @@
       <c r="C296" s="2">
         <v>90.5</v>
       </c>
-      <c r="D296">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>41852</v>
       </c>
@@ -4561,11 +3670,8 @@
       <c r="C297" s="2">
         <v>90.56</v>
       </c>
-      <c r="D297">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>41883</v>
       </c>
@@ -4575,11 +3681,8 @@
       <c r="C298" s="2">
         <v>90.22</v>
       </c>
-      <c r="D298">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>41913</v>
       </c>
@@ -4589,11 +3692,8 @@
       <c r="C299" s="2">
         <v>90.3</v>
       </c>
-      <c r="D299">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>41944</v>
       </c>
@@ -4603,11 +3703,8 @@
       <c r="C300" s="2">
         <v>90.95</v>
       </c>
-      <c r="D300">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>41974</v>
       </c>
@@ -4617,11 +3714,8 @@
       <c r="C301" s="2">
         <v>91.71</v>
       </c>
-      <c r="D301">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>42005</v>
       </c>
@@ -4631,11 +3725,8 @@
       <c r="C302" s="2">
         <v>92.59</v>
       </c>
-      <c r="D302">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>42036</v>
       </c>
@@ -4645,11 +3736,8 @@
       <c r="C303" s="2">
         <v>92.9</v>
       </c>
-      <c r="D303">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>42064</v>
       </c>
@@ -4659,11 +3747,8 @@
       <c r="C304" s="2">
         <v>92.45</v>
       </c>
-      <c r="D304">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>42095</v>
       </c>
@@ -4673,11 +3758,8 @@
       <c r="C305" s="2">
         <v>92.06</v>
       </c>
-      <c r="D305">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>42125</v>
       </c>
@@ -4687,11 +3769,8 @@
       <c r="C306" s="2">
         <v>92.39</v>
       </c>
-      <c r="D306">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>42156</v>
       </c>
@@ -4701,11 +3780,8 @@
       <c r="C307" s="2">
         <v>92.71</v>
       </c>
-      <c r="D307">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>42186</v>
       </c>
@@ -4715,11 +3791,8 @@
       <c r="C308" s="2">
         <v>93.27</v>
       </c>
-      <c r="D308">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>42217</v>
       </c>
@@ -4729,11 +3802,8 @@
       <c r="C309" s="2">
         <v>93.46</v>
       </c>
-      <c r="D309">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>42248</v>
       </c>
@@ -4743,11 +3813,8 @@
       <c r="C310" s="2">
         <v>93.9</v>
       </c>
-      <c r="D310">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>42278</v>
       </c>
@@ -4757,11 +3824,8 @@
       <c r="C311" s="2">
         <v>94.21</v>
       </c>
-      <c r="D311">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>42309</v>
       </c>
@@ -4771,11 +3835,8 @@
       <c r="C312" s="2">
         <v>94.26</v>
       </c>
-      <c r="D312">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>42339</v>
       </c>
@@ -4785,11 +3846,8 @@
       <c r="C313" s="2">
         <v>94.42</v>
       </c>
-      <c r="D313">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>42370</v>
       </c>
@@ -4799,11 +3857,8 @@
       <c r="C314" s="2">
         <v>94.8</v>
       </c>
-      <c r="D314">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>42401</v>
       </c>
@@ -4813,11 +3868,8 @@
       <c r="C315" s="2">
         <v>95.36</v>
       </c>
-      <c r="D315">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>42430</v>
       </c>
@@ -4827,11 +3879,8 @@
       <c r="C316" s="2">
         <v>95.48</v>
       </c>
-      <c r="D316">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>42461</v>
       </c>
@@ -4841,11 +3890,8 @@
       <c r="C317" s="2">
         <v>95.85</v>
       </c>
-      <c r="D317">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>42491</v>
       </c>
@@ -4855,11 +3901,8 @@
       <c r="C318" s="2">
         <v>97.03</v>
       </c>
-      <c r="D318">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>42522</v>
       </c>
@@ -4869,11 +3912,8 @@
       <c r="C319" s="2">
         <v>96.56</v>
       </c>
-      <c r="D319">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>42552</v>
       </c>
@@ -4883,11 +3923,8 @@
       <c r="C320" s="2">
         <v>96.59</v>
       </c>
-      <c r="D320">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>42583</v>
       </c>
@@ -4897,11 +3934,8 @@
       <c r="C321" s="2">
         <v>96.72</v>
       </c>
-      <c r="D321">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>42614</v>
       </c>
@@ -4911,11 +3945,8 @@
       <c r="C322" s="2">
         <v>97.15</v>
       </c>
-      <c r="D322">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>42644</v>
       </c>
@@ -4925,11 +3956,8 @@
       <c r="C323" s="2">
         <v>97.51</v>
       </c>
-      <c r="D323">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>42675</v>
       </c>
@@ -4939,11 +3967,8 @@
       <c r="C324" s="2">
         <v>97.91</v>
       </c>
-      <c r="D324">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>42705</v>
       </c>
@@ -4953,11 +3978,8 @@
       <c r="C325" s="2">
         <v>98.19</v>
       </c>
-      <c r="D325">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>42736</v>
       </c>
@@ -4967,11 +3989,8 @@
       <c r="C326" s="2">
         <v>98.29</v>
       </c>
-      <c r="D326">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>42767</v>
       </c>
@@ -4981,11 +4000,8 @@
       <c r="C327" s="2">
         <v>98.66</v>
       </c>
-      <c r="D327">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>42795</v>
       </c>
@@ -4995,11 +4011,8 @@
       <c r="C328" s="2">
         <v>98.67</v>
       </c>
-      <c r="D328">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>42826</v>
       </c>
@@ -5009,11 +4022,8 @@
       <c r="C329" s="2">
         <v>98.26</v>
       </c>
-      <c r="D329">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>42856</v>
       </c>
@@ -5023,11 +4033,8 @@
       <c r="C330" s="2">
         <v>98.24</v>
       </c>
-      <c r="D330">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>42887</v>
       </c>
@@ -5037,11 +4044,8 @@
       <c r="C331" s="2">
         <v>98.34</v>
       </c>
-      <c r="D331">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>42917</v>
       </c>
@@ -5051,11 +4055,8 @@
       <c r="C332" s="2">
         <v>99.07</v>
       </c>
-      <c r="D332">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>42948</v>
       </c>
@@ -5065,11 +4066,8 @@
       <c r="C333" s="2">
         <v>99.86</v>
       </c>
-      <c r="D333">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>42979</v>
       </c>
@@ -5079,11 +4077,8 @@
       <c r="C334" s="2">
         <v>100.66</v>
       </c>
-      <c r="D334">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>43009</v>
       </c>
@@ -5093,11 +4088,8 @@
       <c r="C335" s="2">
         <v>100.44</v>
       </c>
-      <c r="D335">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>43040</v>
       </c>
@@ -5107,11 +4099,8 @@
       <c r="C336" s="2">
         <v>100.52</v>
       </c>
-      <c r="D336">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>43070</v>
       </c>
@@ -5121,11 +4110,8 @@
       <c r="C337" s="2">
         <v>100.86</v>
       </c>
-      <c r="D337">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>43101</v>
       </c>
@@ -5135,11 +4121,8 @@
       <c r="C338" s="2">
         <v>101.17</v>
       </c>
-      <c r="D338">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>43132</v>
       </c>
@@ -5149,11 +4132,8 @@
       <c r="C339" s="2">
         <v>101.49</v>
       </c>
-      <c r="D339">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>43160</v>
       </c>
@@ -5163,11 +4143,8 @@
       <c r="C340" s="2">
         <v>101.36</v>
       </c>
-      <c r="D340">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>43191</v>
       </c>
@@ -5177,11 +4154,8 @@
       <c r="C341" s="2">
         <v>101.22</v>
       </c>
-      <c r="D341">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>43221</v>
       </c>
@@ -5191,11 +4165,8 @@
       <c r="C342" s="2">
         <v>101.34</v>
       </c>
-      <c r="D342">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>43252</v>
       </c>
@@ -5205,11 +4176,8 @@
       <c r="C343" s="2">
         <v>101.45</v>
       </c>
-      <c r="D343">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>43282</v>
       </c>
@@ -5219,11 +4187,8 @@
       <c r="C344" s="2">
         <v>101.5</v>
       </c>
-      <c r="D344">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>43313</v>
       </c>
@@ -5233,11 +4198,8 @@
       <c r="C345" s="2">
         <v>101.67</v>
       </c>
-      <c r="D345">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>43344</v>
       </c>
@@ -5247,11 +4209,8 @@
       <c r="C346" s="2">
         <v>101.58</v>
       </c>
-      <c r="D346">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>43374</v>
       </c>
@@ -5261,11 +4220,8 @@
       <c r="C347" s="2">
         <v>101.76</v>
       </c>
-      <c r="D347">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>43405</v>
       </c>
@@ -5275,11 +4231,8 @@
       <c r="C348" s="2">
         <v>102.03</v>
       </c>
-      <c r="D348">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>43435</v>
       </c>
@@ -5289,11 +4242,8 @@
       <c r="C349" s="2">
         <v>102.38</v>
       </c>
-      <c r="D349">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>43466</v>
       </c>
@@ -5303,11 +4253,8 @@
       <c r="C350" s="2">
         <v>102.61</v>
       </c>
-      <c r="D350">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>43497</v>
       </c>
@@ -5317,11 +4264,8 @@
       <c r="C351" s="2">
         <v>102.46</v>
       </c>
-      <c r="D351">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>43525</v>
       </c>
@@ -5331,11 +4275,8 @@
       <c r="C352" s="2">
         <v>102.44</v>
       </c>
-      <c r="D352">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>43556</v>
       </c>
@@ -5345,11 +4286,8 @@
       <c r="C353" s="2">
         <v>102.58</v>
       </c>
-      <c r="D353">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>43586</v>
       </c>
@@ -5359,11 +4297,8 @@
       <c r="C354" s="2">
         <v>103.05</v>
       </c>
-      <c r="D354">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>43617</v>
       </c>
@@ -5373,11 +4308,8 @@
       <c r="C355" s="2">
         <v>103.21</v>
       </c>
-      <c r="D355">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>43647</v>
       </c>
@@ -5387,11 +4319,8 @@
       <c r="C356" s="2">
         <v>103.44</v>
       </c>
-      <c r="D356">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>43678</v>
       </c>
@@ -5401,11 +4330,8 @@
       <c r="C357" s="2">
         <v>103.96</v>
       </c>
-      <c r="D357">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>43709</v>
       </c>
@@ -5415,11 +4341,8 @@
       <c r="C358" s="2">
         <v>103.88</v>
       </c>
-      <c r="D358">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>43739</v>
       </c>
@@ -5429,11 +4352,8 @@
       <c r="C359" s="2">
         <v>104.35</v>
       </c>
-      <c r="D359">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>43770</v>
       </c>
@@ -5443,11 +4363,8 @@
       <c r="C360" s="2">
         <v>105.51</v>
       </c>
-      <c r="D360">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>43800</v>
       </c>
@@ -5457,11 +4374,8 @@
       <c r="C361" s="2">
         <v>103.88</v>
       </c>
-      <c r="D361">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>43831</v>
       </c>
@@ -5471,11 +4385,8 @@
       <c r="C362" s="2">
         <v>103.85</v>
       </c>
-      <c r="D362">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>43862</v>
       </c>
@@ -5485,11 +4396,8 @@
       <c r="C363" s="2">
         <v>103.79</v>
       </c>
-      <c r="D363">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>43891</v>
       </c>
@@ -5499,11 +4407,8 @@
       <c r="C364" s="2">
         <v>103.91</v>
       </c>
-      <c r="D364">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>43922</v>
       </c>
@@ -5513,11 +4418,8 @@
       <c r="C365" s="2">
         <v>104.34</v>
       </c>
-      <c r="D365">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>43952</v>
       </c>
@@ -5527,11 +4429,8 @@
       <c r="C366" s="2">
         <v>104.32</v>
       </c>
-      <c r="D366">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>43983</v>
       </c>
@@ -5541,11 +4440,8 @@
       <c r="C367" s="2">
         <v>104.69</v>
       </c>
-      <c r="D367">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44013</v>
       </c>
@@ -5555,11 +4451,8 @@
       <c r="C368" s="2">
         <v>104.84</v>
       </c>
-      <c r="D368">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44044</v>
       </c>
@@ -5569,11 +4462,8 @@
       <c r="C369" s="2">
         <v>105.41</v>
       </c>
-      <c r="D369">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44075</v>
       </c>
@@ -5583,11 +4473,8 @@
       <c r="C370" s="2">
         <v>104.35</v>
       </c>
-      <c r="D370">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44105</v>
       </c>
@@ -5597,11 +4484,8 @@
       <c r="C371" s="2">
         <v>104.63</v>
       </c>
-      <c r="D371">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44136</v>
       </c>
@@ -5611,11 +4495,8 @@
       <c r="C372" s="2">
         <v>104.35</v>
       </c>
-      <c r="D372">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44166</v>
       </c>
@@ -5625,11 +4506,8 @@
       <c r="C373" s="2">
         <v>104.58</v>
       </c>
-      <c r="D373">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44197</v>
       </c>
@@ -5639,11 +4517,8 @@
       <c r="C374" s="2">
         <v>105.07</v>
       </c>
-      <c r="D374">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44228</v>
       </c>
@@ -5653,11 +4528,8 @@
       <c r="C375" s="2">
         <v>105.24</v>
       </c>
-      <c r="D375">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44256</v>
       </c>
@@ -5667,11 +4539,8 @@
       <c r="C376" s="2">
         <v>105.12</v>
       </c>
-      <c r="D376">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44287</v>
       </c>
@@ -5681,11 +4550,8 @@
       <c r="C377" s="2">
         <v>105.05</v>
       </c>
-      <c r="D377">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44317</v>
       </c>
@@ -5695,11 +4561,8 @@
       <c r="C378" s="2">
         <v>104.88</v>
       </c>
-      <c r="D378">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44348</v>
       </c>
@@ -5709,11 +4572,8 @@
       <c r="C379" s="2">
         <v>104.89</v>
       </c>
-      <c r="D379">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44378</v>
       </c>
@@ -5723,11 +4583,8 @@
       <c r="C380" s="2">
         <v>105.05</v>
       </c>
-      <c r="D380">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44409</v>
       </c>
@@ -5737,11 +4594,8 @@
       <c r="C381" s="2">
         <v>105.59</v>
       </c>
-      <c r="D381">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44440</v>
       </c>
@@ -5751,11 +4605,8 @@
       <c r="C382" s="2">
         <v>105.39</v>
       </c>
-      <c r="D382">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44470</v>
       </c>
@@ -5765,11 +4616,8 @@
       <c r="C383" s="2">
         <v>105.15</v>
       </c>
-      <c r="D383">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44501</v>
       </c>
@@ -5779,11 +4627,8 @@
       <c r="C384" s="2">
         <v>105.35</v>
       </c>
-      <c r="D384">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44531</v>
       </c>
@@ -5793,11 +4638,8 @@
       <c r="C385" s="2">
         <v>105.52</v>
       </c>
-      <c r="D385">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44562</v>
       </c>
@@ -5807,11 +4649,8 @@
       <c r="C386" s="2">
         <v>105.85</v>
       </c>
-      <c r="D386">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44593</v>
       </c>
@@ -5821,11 +4660,8 @@
       <c r="C387" s="2">
         <v>105.98</v>
       </c>
-      <c r="D387">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44621</v>
       </c>
@@ -5835,11 +4671,8 @@
       <c r="C388" s="2">
         <v>105.93</v>
       </c>
-      <c r="D388">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44652</v>
       </c>
@@ -5849,11 +4682,8 @@
       <c r="C389" s="2">
         <v>105.96</v>
       </c>
-      <c r="D389">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44682</v>
       </c>
@@ -5863,11 +4693,8 @@
       <c r="C390" s="2">
         <v>106.36</v>
       </c>
-      <c r="D390">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44713</v>
       </c>
@@ -5877,11 +4704,8 @@
       <c r="C391" s="2">
         <v>106.77</v>
       </c>
-      <c r="D391">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44743</v>
       </c>
@@ -5891,11 +4715,8 @@
       <c r="C392" s="2">
         <v>107.19</v>
       </c>
-      <c r="D392">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44774</v>
       </c>
@@ -5905,11 +4726,8 @@
       <c r="C393" s="2">
         <v>107.23</v>
       </c>
-      <c r="D393">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44805</v>
       </c>
@@ -5919,11 +4737,8 @@
       <c r="C394" s="2">
         <v>107.38</v>
       </c>
-      <c r="D394">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44835</v>
       </c>
@@ -5933,11 +4748,8 @@
       <c r="C395" s="2">
         <v>108.18</v>
       </c>
-      <c r="D395">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44866</v>
       </c>
@@ -5947,11 +4759,8 @@
       <c r="C396" s="2">
         <v>108.69</v>
       </c>
-      <c r="D396">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44896</v>
       </c>
@@ -5961,11 +4770,8 @@
       <c r="C397" s="2">
         <v>108.82</v>
       </c>
-      <c r="D397">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44927</v>
       </c>
@@ -5975,11 +4781,8 @@
       <c r="C398" s="2">
         <v>109.18</v>
       </c>
-      <c r="D398">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44958</v>
       </c>
@@ -5989,11 +4792,8 @@
       <c r="C399" s="2">
         <v>108.7</v>
       </c>
-      <c r="D399">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44986</v>
       </c>
@@ -6003,11 +4803,8 @@
       <c r="C400" s="2">
         <v>108.61</v>
       </c>
-      <c r="D400">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>45017</v>
       </c>
@@ -6017,11 +4814,8 @@
       <c r="C401" s="2">
         <v>108.81</v>
       </c>
-      <c r="D401">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>45047</v>
       </c>
@@ -6031,11 +4825,8 @@
       <c r="C402" s="2">
         <v>109.44</v>
       </c>
-      <c r="D402">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>45078</v>
       </c>
@@ -6045,11 +4836,8 @@
       <c r="C403" s="2">
         <v>109.68</v>
       </c>
-      <c r="D403">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>45108</v>
       </c>
@@ -6060,7 +4848,7 @@
         <v>110.08</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>45139</v>
       </c>
@@ -6071,7 +4859,7 @@
         <v>110.51</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>45170</v>
       </c>
@@ -6082,7 +4870,7 @@
         <v>110.44</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>45200</v>
       </c>
@@ -6093,7 +4881,7 @@
         <v>110.43</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>45231</v>
       </c>
@@ -6104,7 +4892,7 @@
         <v>110.43</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>45261</v>
       </c>
@@ -6115,7 +4903,7 @@
         <v>111.12</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>45292</v>
       </c>
@@ -6126,7 +4914,7 @@
         <v>111.21</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>45323</v>
       </c>
@@ -6137,7 +4925,7 @@
         <v>111.43</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>45352</v>
       </c>
@@ -6148,7 +4936,7 @@
         <v>111.94</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>45383</v>
       </c>
@@ -6159,7 +4947,7 @@
         <v>112.58</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>45413</v>
       </c>
@@ -6170,7 +4958,7 @@
         <v>113.29</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>45444</v>
       </c>
@@ -6181,7 +4969,7 @@
         <v>113.9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>45474</v>
       </c>
